--- a/Project/DataTable/Excel/UI界面配置表.xlsx
+++ b/Project/DataTable/Excel/UI界面配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22200" windowHeight="10770"/>
+    <workbookView windowWidth="23430" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="UI界面配置表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>Id</t>
   </si>
@@ -67,6 +67,30 @@
     <t>是否暂停被其覆盖的界面</t>
   </si>
   <si>
+    <t>(#SKIP)</t>
+  </si>
+  <si>
+    <t>杂项界面（1001-1999）</t>
+  </si>
+  <si>
+    <t>登陆框界面</t>
+  </si>
+  <si>
+    <t>Login/LoginForm</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>创建角色界面</t>
+  </si>
+  <si>
+    <t>CreateRole/CreateRoleForm</t>
+  </si>
+  <si>
+    <t>公共界面（2001-2999）</t>
+  </si>
+  <si>
     <t>加载进度</t>
   </si>
   <si>
@@ -82,19 +106,13 @@
     <t>Common/DialogForm</t>
   </si>
   <si>
-    <t>登陆框界面</t>
-  </si>
-  <si>
-    <t>Login/LoginForm</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>创建角色界面</t>
-  </si>
-  <si>
-    <t>CreateRole/CreateRoleForm</t>
+    <t>战斗界面（3001-3999）</t>
+  </si>
+  <si>
+    <t>战斗操作界面</t>
+  </si>
+  <si>
+    <t>Battle/ControllerForm</t>
   </si>
 </sst>
 </file>
@@ -102,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -141,12 +159,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,10 +202,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -193,6 +220,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -510,11 +540,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -538,13 +568,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
@@ -555,164 +585,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5">
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6">
         <v>1001</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="b">
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="5" t="b">
+      <c r="F9" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5">
-        <v>1002</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7">
+        <v>3001</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="b">
+      <c r="E12" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5">
-        <v>1003</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="b">
+      <c r="F12" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5">
-        <v>1004</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="b">
-        <v>0</v>
-      </c>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/Project/DataTable/Excel/UI界面配置表.xlsx
+++ b/Project/DataTable/Excel/UI界面配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12015"/>
+    <workbookView windowWidth="25080" windowHeight="10980"/>
   </bookViews>
   <sheets>
     <sheet name="UI界面配置表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>Id</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>Home/HomeForm</t>
+  </si>
+  <si>
+    <t>副本选择界面</t>
+  </si>
+  <si>
+    <t>Level/LevelSelectForm</t>
   </si>
 </sst>
 </file>
@@ -126,9 +132,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
@@ -574,7 +580,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -820,12 +826,24 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="6">
+        <v>3003</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6"/>

--- a/Project/DataTable/Excel/UI界面配置表.xlsx
+++ b/Project/DataTable/Excel/UI界面配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25080" windowHeight="10980"/>
+    <workbookView windowWidth="28710" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="UI界面配置表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>Id</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>Level/LevelSelectForm</t>
+  </si>
+  <si>
+    <t>动态界面（4001-4999）</t>
+  </si>
+  <si>
+    <t>角色头上UI</t>
+  </si>
+  <si>
+    <t>Dynamic/RoleBoardForm</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
   </si>
 </sst>
 </file>
@@ -132,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -580,7 +592,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -699,7 +711,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6" t="b">
         <v>0</v>
@@ -845,21 +857,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+    <row r="15" s="1" customFormat="1" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="A16" s="6">
+        <v>4001</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6"/>

--- a/Project/DataTable/Excel/UI界面配置表.xlsx
+++ b/Project/DataTable/Excel/UI界面配置表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>Id</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>Dynamic</t>
+  </si>
+  <si>
+    <t>伤害数值</t>
+  </si>
+  <si>
+    <t>Dynamic/FlyWordForm</t>
   </si>
 </sst>
 </file>
@@ -144,10 +150,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -592,7 +598,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -890,12 +896,24 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="A17" s="6">
+        <v>4002</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6"/>

--- a/Project/DataTable/Excel/UI界面配置表.xlsx
+++ b/Project/DataTable/Excel/UI界面配置表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>Id</t>
   </si>
@@ -127,6 +127,12 @@
     <t>Level/LevelSelectForm</t>
   </si>
   <si>
+    <t>副本结算界面</t>
+  </si>
+  <si>
+    <t>Level/LevelResultForm</t>
+  </si>
+  <si>
     <t>动态界面（4001-4999）</t>
   </si>
   <si>
@@ -143,6 +149,12 @@
   </si>
   <si>
     <t>Dynamic/FlyWordForm</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>Dynamic/ComboForm</t>
   </si>
 </sst>
 </file>
@@ -150,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -595,10 +607,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -863,50 +875,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:6">
-      <c r="A15" s="1" t="s">
+    <row r="15" customFormat="1" spans="1:6">
+      <c r="A15" s="6">
+        <v>3004</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:6">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6">
-        <v>4001</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E17" s="6" t="b">
         <v>1</v>
@@ -916,20 +928,44 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="A18" s="6">
+        <v>4002</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="A19" s="6">
+        <v>4003</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="6"/>
@@ -1043,6 +1079,14 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
